--- a/Team-Data/2012-13/2-19-2012-13.xlsx
+++ b/Team-Data/2012-13/2-19-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>0.8</v>
       </c>
       <c r="AD2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -753,13 +820,13 @@
         <v>9</v>
       </c>
       <c r="AG2" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="n">
         <v>11</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>24</v>
@@ -798,7 +865,7 @@
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" t="n">
         <v>28</v>
       </c>
       <c r="F3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="n">
-        <v>0.528</v>
+        <v>0.538</v>
       </c>
       <c r="H3" t="n">
         <v>49.3</v>
@@ -875,22 +942,22 @@
         <v>5.6</v>
       </c>
       <c r="M3" t="n">
-        <v>16.6</v>
+        <v>16.5</v>
       </c>
       <c r="N3" t="n">
         <v>0.34</v>
       </c>
       <c r="O3" t="n">
-        <v>16.5</v>
+        <v>16.6</v>
       </c>
       <c r="P3" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="Q3" t="n">
         <v>0.785</v>
       </c>
       <c r="R3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="S3" t="n">
         <v>31.5</v>
@@ -908,31 +975,31 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X3" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y3" t="n">
         <v>4.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA3" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
         <v>15</v>
       </c>
       <c r="AF3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AG3" t="n">
         <v>14</v>
@@ -950,19 +1017,19 @@
         <v>8</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AM3" t="n">
         <v>27</v>
       </c>
       <c r="AN3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AO3" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
         <v>6</v>
@@ -977,7 +1044,7 @@
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV3" t="n">
         <v>9</v>
@@ -1001,7 +1068,7 @@
         <v>18</v>
       </c>
       <c r="BC3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" t="n">
         <v>22</v>
       </c>
       <c r="G4" t="n">
-        <v>0.593</v>
+        <v>0.585</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>35</v>
+        <v>34.8</v>
       </c>
       <c r="J4" t="n">
-        <v>79.2</v>
+        <v>79</v>
       </c>
       <c r="K4" t="n">
-        <v>0.442</v>
+        <v>0.441</v>
       </c>
       <c r="L4" t="n">
         <v>7.6</v>
       </c>
       <c r="M4" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="N4" t="n">
-        <v>0.355</v>
+        <v>0.352</v>
       </c>
       <c r="O4" t="n">
         <v>17.9</v>
@@ -1078,10 +1145,10 @@
         <v>29.8</v>
       </c>
       <c r="T4" t="n">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="U4" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
@@ -1093,7 +1160,7 @@
         <v>4.8</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Z4" t="n">
         <v>18.3</v>
@@ -1102,16 +1169,16 @@
         <v>21.1</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.2</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
@@ -1120,13 +1187,13 @@
         <v>9</v>
       </c>
       <c r="AH4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AI4" t="n">
         <v>28</v>
       </c>
       <c r="AJ4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
         <v>21</v>
@@ -1138,10 +1205,10 @@
         <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP4" t="n">
         <v>7</v>
@@ -1171,7 +1238,7 @@
         <v>20</v>
       </c>
       <c r="AY4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ4" t="n">
         <v>3</v>
@@ -1180,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="BB4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC4" t="n">
         <v>13</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -1212,37 +1279,37 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.245</v>
+        <v>0.231</v>
       </c>
       <c r="H5" t="n">
         <v>48.5</v>
       </c>
       <c r="I5" t="n">
-        <v>34.4</v>
+        <v>34.3</v>
       </c>
       <c r="J5" t="n">
-        <v>81.59999999999999</v>
+        <v>81.7</v>
       </c>
       <c r="K5" t="n">
-        <v>0.422</v>
+        <v>0.421</v>
       </c>
       <c r="L5" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M5" t="n">
-        <v>16.5</v>
+        <v>16.4</v>
       </c>
       <c r="N5" t="n">
-        <v>0.348</v>
+        <v>0.347</v>
       </c>
       <c r="O5" t="n">
         <v>19.4</v>
@@ -1257,40 +1324,40 @@
         <v>11.4</v>
       </c>
       <c r="S5" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T5" t="n">
-        <v>41.1</v>
+        <v>41</v>
       </c>
       <c r="U5" t="n">
         <v>18.9</v>
       </c>
       <c r="V5" t="n">
-        <v>14.2</v>
+        <v>14.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X5" t="n">
         <v>6.3</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="Z5" t="n">
         <v>19.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="AC5" t="n">
-        <v>-8.5</v>
+        <v>-8.9</v>
       </c>
       <c r="AD5" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1320,7 +1387,7 @@
         <v>28</v>
       </c>
       <c r="AN5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AO5" t="n">
         <v>2</v>
@@ -1338,7 +1405,7 @@
         <v>26</v>
       </c>
       <c r="AT5" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU5" t="n">
         <v>30</v>
@@ -1362,7 +1429,7 @@
         <v>4</v>
       </c>
       <c r="BB5" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BC5" t="n">
         <v>30</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E6" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" t="n">
         <v>22</v>
       </c>
       <c r="G6" t="n">
-        <v>0.585</v>
+        <v>0.577</v>
       </c>
       <c r="H6" t="n">
         <v>48.4</v>
@@ -1415,22 +1482,22 @@
         <v>81.2</v>
       </c>
       <c r="K6" t="n">
-        <v>0.439</v>
+        <v>0.438</v>
       </c>
       <c r="L6" t="n">
         <v>4.8</v>
       </c>
       <c r="M6" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="N6" t="n">
-        <v>0.345</v>
+        <v>0.344</v>
       </c>
       <c r="O6" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="P6" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="Q6" t="n">
         <v>0.779</v>
@@ -1442,10 +1509,10 @@
         <v>30.9</v>
       </c>
       <c r="T6" t="n">
-        <v>43.8</v>
+        <v>43.7</v>
       </c>
       <c r="U6" t="n">
-        <v>22.8</v>
+        <v>22.6</v>
       </c>
       <c r="V6" t="n">
         <v>14.7</v>
@@ -1463,16 +1530,16 @@
         <v>19.7</v>
       </c>
       <c r="AA6" t="n">
-        <v>20.2</v>
+        <v>20.3</v>
       </c>
       <c r="AB6" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD6" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE6" t="n">
         <v>10</v>
@@ -1490,10 +1557,10 @@
         <v>25</v>
       </c>
       <c r="AJ6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL6" t="n">
         <v>29</v>
@@ -1502,40 +1569,40 @@
         <v>29</v>
       </c>
       <c r="AN6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AO6" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS6" t="n">
         <v>14</v>
       </c>
-      <c r="AP6" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AR6" t="n">
+      <c r="AT6" t="n">
         <v>6</v>
       </c>
-      <c r="AS6" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT6" t="n">
-        <v>5</v>
-      </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AX6" t="n">
         <v>12</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AZ6" t="n">
         <v>13</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -1654,13 +1721,13 @@
         <v>-4.3</v>
       </c>
       <c r="AD7" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE7" t="n">
         <v>27</v>
       </c>
       <c r="AF7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG7" t="n">
         <v>27</v>
@@ -1684,7 +1751,7 @@
         <v>11</v>
       </c>
       <c r="AN7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO7" t="n">
         <v>15</v>
@@ -1702,13 +1769,13 @@
         <v>29</v>
       </c>
       <c r="AT7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU7" t="n">
         <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -1836,13 +1903,13 @@
         <v>-1.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AE8" t="n">
         <v>19</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
         <v>19</v>
@@ -1857,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="AK8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL8" t="n">
         <v>13</v>
@@ -1869,13 +1936,13 @@
         <v>8</v>
       </c>
       <c r="AO8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP8" t="n">
         <v>16</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
         <v>27</v>
@@ -1887,7 +1954,7 @@
         <v>14</v>
       </c>
       <c r="AU8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV8" t="n">
         <v>6</v>
@@ -1899,7 +1966,7 @@
         <v>13</v>
       </c>
       <c r="AY8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ8" t="n">
         <v>24</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -1940,28 +2007,28 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E9" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
         <v>21</v>
       </c>
       <c r="G9" t="n">
-        <v>0.618</v>
+        <v>0.611</v>
       </c>
       <c r="H9" t="n">
         <v>48.6</v>
       </c>
       <c r="I9" t="n">
-        <v>40.2</v>
+        <v>40.3</v>
       </c>
       <c r="J9" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="K9" t="n">
-        <v>0.471</v>
+        <v>0.472</v>
       </c>
       <c r="L9" t="n">
         <v>6.6</v>
@@ -1973,16 +2040,16 @@
         <v>0.344</v>
       </c>
       <c r="O9" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P9" t="n">
-        <v>26.1</v>
+        <v>25.9</v>
       </c>
       <c r="Q9" t="n">
         <v>0.6879999999999999</v>
       </c>
       <c r="R9" t="n">
-        <v>13.6</v>
+        <v>13.7</v>
       </c>
       <c r="S9" t="n">
         <v>31.8</v>
@@ -1994,31 +2061,31 @@
         <v>23.9</v>
       </c>
       <c r="V9" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W9" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y9" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA9" t="n">
         <v>22</v>
       </c>
       <c r="AB9" t="n">
-        <v>104.9</v>
+        <v>105.1</v>
       </c>
       <c r="AC9" t="n">
         <v>3.6</v>
       </c>
       <c r="AD9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE9" t="n">
         <v>5</v>
@@ -2030,7 +2097,7 @@
         <v>7</v>
       </c>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AI9" t="n">
         <v>1</v>
@@ -2042,16 +2109,16 @@
         <v>5</v>
       </c>
       <c r="AL9" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM9" t="n">
         <v>17</v>
       </c>
       <c r="AN9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AO9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>3</v>
@@ -2072,10 +2139,10 @@
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AW9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX9" t="n">
         <v>4</v>
@@ -2084,7 +2151,7 @@
         <v>28</v>
       </c>
       <c r="AZ9" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA9" t="n">
         <v>3</v>
@@ -2093,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="BC9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E10" t="n">
         <v>21</v>
       </c>
       <c r="F10" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="n">
-        <v>0.382</v>
+        <v>0.389</v>
       </c>
       <c r="H10" t="n">
         <v>48.5</v>
@@ -2152,28 +2219,28 @@
         <v>16.9</v>
       </c>
       <c r="N10" t="n">
-        <v>0.367</v>
+        <v>0.365</v>
       </c>
       <c r="O10" t="n">
-        <v>16.2</v>
+        <v>16.4</v>
       </c>
       <c r="P10" t="n">
-        <v>23.2</v>
+        <v>23.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.696</v>
+        <v>0.697</v>
       </c>
       <c r="R10" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S10" t="n">
-        <v>30.8</v>
+        <v>31</v>
       </c>
       <c r="T10" t="n">
-        <v>43.5</v>
+        <v>43.8</v>
       </c>
       <c r="U10" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V10" t="n">
         <v>15.1</v>
@@ -2185,25 +2252,25 @@
         <v>5.6</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>19.6</v>
+        <v>19.7</v>
       </c>
       <c r="AA10" t="n">
         <v>20.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>95.2</v>
+        <v>95.3</v>
       </c>
       <c r="AC10" t="n">
-        <v>-1.9</v>
+        <v>-1.7</v>
       </c>
       <c r="AD10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>23</v>
@@ -2233,7 +2300,7 @@
         <v>9</v>
       </c>
       <c r="AO10" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP10" t="n">
         <v>10</v>
@@ -2242,19 +2309,19 @@
         <v>28</v>
       </c>
       <c r="AR10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS10" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AT10" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AU10" t="n">
         <v>24</v>
       </c>
       <c r="AV10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW10" t="n">
         <v>26</v>
@@ -2272,7 +2339,7 @@
         <v>10</v>
       </c>
       <c r="BB10" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BC10" t="n">
         <v>20</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -2304,58 +2371,58 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E11" t="n">
         <v>30</v>
       </c>
       <c r="F11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.577</v>
       </c>
       <c r="H11" t="n">
         <v>48.4</v>
       </c>
       <c r="I11" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="J11" t="n">
         <v>83.40000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M11" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
       <c r="N11" t="n">
-        <v>0.391</v>
+        <v>0.393</v>
       </c>
       <c r="O11" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
         <v>21.5</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.797</v>
+        <v>0.798</v>
       </c>
       <c r="R11" t="n">
         <v>11</v>
       </c>
       <c r="S11" t="n">
-        <v>33.6</v>
+        <v>33.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.7</v>
       </c>
       <c r="U11" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V11" t="n">
         <v>15.2</v>
@@ -2373,25 +2440,25 @@
         <v>21.8</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB11" t="n">
         <v>101</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="AD11" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AF11" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AG11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
         <v>17</v>
@@ -2415,25 +2482,25 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV11" t="n">
         <v>24</v>
@@ -2445,7 +2512,7 @@
         <v>28</v>
       </c>
       <c r="AY11" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
         <v>29</v>
@@ -2457,7 +2524,7 @@
         <v>8</v>
       </c>
       <c r="BC11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -2570,19 +2637,19 @@
         <v>13</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>15</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AI12" t="n">
         <v>4</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK12" t="n">
         <v>6</v>
@@ -2603,7 +2670,7 @@
         <v>6</v>
       </c>
       <c r="AQ12" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
         <v>21</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>2.9</v>
       </c>
       <c r="AD13" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>7</v>
@@ -2758,7 +2825,7 @@
         <v>8</v>
       </c>
       <c r="AH13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2773,13 +2840,13 @@
         <v>16</v>
       </c>
       <c r="AM13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP13" t="n">
         <v>14</v>
@@ -2800,7 +2867,7 @@
         <v>26</v>
       </c>
       <c r="AV13" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW13" t="n">
         <v>27</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -2976,10 +3043,10 @@
         <v>18</v>
       </c>
       <c r="AT14" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>16</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>0.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AE15" t="n">
         <v>17</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH15" t="n">
         <v>29</v>
@@ -3155,10 +3222,10 @@
         <v>12</v>
       </c>
       <c r="AS15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU15" t="n">
         <v>15</v>
@@ -3167,10 +3234,10 @@
         <v>26</v>
       </c>
       <c r="AW15" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY15" t="n">
         <v>15</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -3214,28 +3281,28 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F16" t="n">
         <v>18</v>
       </c>
       <c r="G16" t="n">
-        <v>0.654</v>
+        <v>0.647</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J16" t="n">
         <v>82.7</v>
       </c>
       <c r="K16" t="n">
-        <v>0.442</v>
+        <v>0.44</v>
       </c>
       <c r="L16" t="n">
         <v>4.7</v>
@@ -3247,31 +3314,31 @@
         <v>0.345</v>
       </c>
       <c r="O16" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="P16" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.788</v>
+        <v>0.792</v>
       </c>
       <c r="R16" t="n">
         <v>13.4</v>
       </c>
       <c r="S16" t="n">
-        <v>29.3</v>
+        <v>29.2</v>
       </c>
       <c r="T16" t="n">
-        <v>42.7</v>
+        <v>42.6</v>
       </c>
       <c r="U16" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="V16" t="n">
         <v>14.8</v>
       </c>
       <c r="W16" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="X16" t="n">
         <v>5.1</v>
@@ -3286,13 +3353,13 @@
         <v>19.6</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.90000000000001</v>
+        <v>93.7</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
@@ -3307,13 +3374,13 @@
         <v>16</v>
       </c>
       <c r="AI16" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
         <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AL16" t="n">
         <v>30</v>
@@ -3322,7 +3389,7 @@
         <v>30</v>
       </c>
       <c r="AN16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>22</v>
@@ -3346,7 +3413,7 @@
         <v>23</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AW16" t="n">
         <v>2</v>
@@ -3355,7 +3422,7 @@
         <v>15</v>
       </c>
       <c r="AY16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ16" t="n">
         <v>15</v>
@@ -3367,7 +3434,7 @@
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -3486,7 +3553,7 @@
         <v>3</v>
       </c>
       <c r="AH17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI17" t="n">
         <v>3</v>
@@ -3519,7 +3586,7 @@
         <v>28</v>
       </c>
       <c r="AS17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT17" t="n">
         <v>30</v>
@@ -3531,7 +3598,7 @@
         <v>4</v>
       </c>
       <c r="AW17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX17" t="n">
         <v>16</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -3578,34 +3645,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
         <v>26</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="H18" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I18" t="n">
-        <v>37.7</v>
+        <v>37.6</v>
       </c>
       <c r="J18" t="n">
-        <v>87.09999999999999</v>
+        <v>87</v>
       </c>
       <c r="K18" t="n">
-        <v>0.433</v>
+        <v>0.432</v>
       </c>
       <c r="L18" t="n">
         <v>6.5</v>
       </c>
       <c r="M18" t="n">
-        <v>18.7</v>
+        <v>18.6</v>
       </c>
       <c r="N18" t="n">
         <v>0.347</v>
@@ -3617,7 +3684,7 @@
         <v>21.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.735</v>
+        <v>0.736</v>
       </c>
       <c r="R18" t="n">
         <v>13.1</v>
@@ -3629,16 +3696,16 @@
         <v>43.5</v>
       </c>
       <c r="U18" t="n">
-        <v>22.2</v>
+        <v>22.1</v>
       </c>
       <c r="V18" t="n">
-        <v>14.3</v>
+        <v>14.4</v>
       </c>
       <c r="W18" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X18" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
@@ -3650,13 +3717,13 @@
         <v>19.7</v>
       </c>
       <c r="AB18" t="n">
-        <v>97.7</v>
+        <v>97.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE18" t="n">
         <v>16</v>
@@ -3668,10 +3735,10 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AJ18" t="n">
         <v>1</v>
@@ -3680,19 +3747,19 @@
         <v>26</v>
       </c>
       <c r="AL18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN18" t="n">
         <v>21</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ18" t="n">
         <v>22</v>
@@ -3710,7 +3777,7 @@
         <v>16</v>
       </c>
       <c r="AV18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW18" t="n">
         <v>6</v>
@@ -3728,7 +3795,7 @@
         <v>17</v>
       </c>
       <c r="BB18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC18" t="n">
         <v>17</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -3901,7 +3968,7 @@
         <v>18</v>
       </c>
       <c r="AY19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ19" t="n">
         <v>4</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" t="n">
         <v>19</v>
       </c>
       <c r="F20" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G20" t="n">
-        <v>0.352</v>
+        <v>0.358</v>
       </c>
       <c r="H20" t="n">
         <v>48.4</v>
@@ -3963,25 +4030,25 @@
         <v>80</v>
       </c>
       <c r="K20" t="n">
-        <v>0.452</v>
+        <v>0.453</v>
       </c>
       <c r="L20" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M20" t="n">
         <v>18.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.373</v>
+        <v>0.376</v>
       </c>
       <c r="O20" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P20" t="n">
         <v>19.3</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R20" t="n">
         <v>11.2</v>
@@ -3999,7 +4066,7 @@
         <v>14.6</v>
       </c>
       <c r="W20" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="X20" t="n">
         <v>5.5</v>
@@ -4008,19 +4075,19 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
         <v>18.7</v>
       </c>
       <c r="AB20" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AD20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE20" t="n">
         <v>23</v>
@@ -4041,7 +4108,7 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL20" t="n">
         <v>15</v>
@@ -4053,7 +4120,7 @@
         <v>7</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AP20" t="n">
         <v>28</v>
@@ -4086,16 +4153,16 @@
         <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA20" t="n">
         <v>26</v>
       </c>
       <c r="BB20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BC20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -4235,10 +4302,10 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ21" t="n">
         <v>18</v>
@@ -4250,7 +4317,7 @@
         <v>22</v>
       </c>
       <c r="AT21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU21" t="n">
         <v>29</v>
@@ -4271,7 +4338,7 @@
         <v>9</v>
       </c>
       <c r="BA21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -4384,7 +4451,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD22" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AE22" t="n">
         <v>2</v>
@@ -4396,19 +4463,19 @@
         <v>2</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
         <v>7</v>
       </c>
       <c r="AJ22" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AK22" t="n">
         <v>3</v>
       </c>
       <c r="AL22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM22" t="n">
         <v>14</v>
@@ -4435,7 +4502,7 @@
         <v>12</v>
       </c>
       <c r="AU22" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV22" t="n">
         <v>29</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -4488,49 +4555,49 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G23" t="n">
-        <v>0.283</v>
+        <v>0.288</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>37.6</v>
+        <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>83.59999999999999</v>
+        <v>83.5</v>
       </c>
       <c r="K23" t="n">
-        <v>0.45</v>
+        <v>0.451</v>
       </c>
       <c r="L23" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="M23" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.338</v>
+        <v>0.342</v>
       </c>
       <c r="O23" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="P23" t="n">
         <v>15.7</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.774</v>
+        <v>0.773</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S23" t="n">
         <v>32.2</v>
@@ -4542,7 +4609,7 @@
         <v>23.3</v>
       </c>
       <c r="V23" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
@@ -4563,25 +4630,25 @@
         <v>94</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="AD23" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AE23" t="n">
         <v>28</v>
       </c>
       <c r="AF23" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AG23" t="n">
         <v>29</v>
       </c>
       <c r="AH23" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI23" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ23" t="n">
         <v>7</v>
@@ -4590,13 +4657,13 @@
         <v>14</v>
       </c>
       <c r="AL23" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AN23" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO23" t="n">
         <v>29</v>
@@ -4638,7 +4705,7 @@
         <v>30</v>
       </c>
       <c r="BB23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>28</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -4748,13 +4815,13 @@
         <v>-3.1</v>
       </c>
       <c r="AD24" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
       </c>
       <c r="AF24" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG24" t="n">
         <v>20</v>
@@ -4763,16 +4830,16 @@
         <v>21</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AM24" t="n">
         <v>23</v>
@@ -4799,13 +4866,13 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
       </c>
       <c r="AW24" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX24" t="n">
         <v>17</v>
@@ -4823,7 +4890,7 @@
         <v>29</v>
       </c>
       <c r="BC24" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -4852,16 +4919,16 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="n">
         <v>36</v>
       </c>
       <c r="G25" t="n">
-        <v>0.333</v>
+        <v>0.321</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
@@ -4873,37 +4940,37 @@
         <v>83.90000000000001</v>
       </c>
       <c r="K25" t="n">
-        <v>0.444</v>
+        <v>0.443</v>
       </c>
       <c r="L25" t="n">
         <v>5.6</v>
       </c>
       <c r="M25" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="N25" t="n">
-        <v>0.324</v>
+        <v>0.325</v>
       </c>
       <c r="O25" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="P25" t="n">
         <v>19.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.756</v>
+        <v>0.754</v>
       </c>
       <c r="R25" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="S25" t="n">
-        <v>29.8</v>
+        <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>41.2</v>
+        <v>41</v>
       </c>
       <c r="U25" t="n">
-        <v>22</v>
+        <v>21.9</v>
       </c>
       <c r="V25" t="n">
         <v>14.7</v>
@@ -4915,46 +4982,46 @@
         <v>5.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AA25" t="n">
         <v>18.3</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE25" t="n">
         <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG25" t="n">
         <v>26</v>
       </c>
       <c r="AH25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AL25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AM25" t="n">
         <v>24</v>
@@ -4963,7 +5030,7 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP25" t="n">
         <v>26</v>
@@ -4975,28 +5042,28 @@
         <v>15</v>
       </c>
       <c r="AS25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AT25" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AU25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW25" t="n">
         <v>17</v>
       </c>
       <c r="AX25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ25" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BA25" t="n">
         <v>28</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -5034,76 +5101,76 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="n">
         <v>25</v>
       </c>
       <c r="F26" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.463</v>
+        <v>0.472</v>
       </c>
       <c r="H26" t="n">
-        <v>48.6</v>
+        <v>48.7</v>
       </c>
       <c r="I26" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J26" t="n">
         <v>81.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.441</v>
+        <v>0.442</v>
       </c>
       <c r="L26" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="M26" t="n">
-        <v>23.8</v>
+        <v>23.9</v>
       </c>
       <c r="N26" t="n">
-        <v>0.337</v>
+        <v>0.338</v>
       </c>
       <c r="O26" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="P26" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.78</v>
+        <v>0.779</v>
       </c>
       <c r="R26" t="n">
         <v>11.2</v>
       </c>
       <c r="S26" t="n">
-        <v>30.2</v>
+        <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.4</v>
+        <v>41.5</v>
       </c>
       <c r="U26" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V26" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W26" t="n">
         <v>7</v>
       </c>
       <c r="X26" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y26" t="n">
         <v>4.1</v>
       </c>
       <c r="Z26" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA26" t="n">
-        <v>19.3</v>
+        <v>19.2</v>
       </c>
       <c r="AB26" t="n">
         <v>96.7</v>
@@ -5112,7 +5179,7 @@
         <v>-3</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE26" t="n">
         <v>17</v>
@@ -5133,7 +5200,7 @@
         <v>15</v>
       </c>
       <c r="AK26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AL26" t="n">
         <v>7</v>
@@ -5145,19 +5212,19 @@
         <v>28</v>
       </c>
       <c r="AO26" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ26" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
         <v>16</v>
       </c>
       <c r="AS26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT26" t="n">
         <v>19</v>
@@ -5172,7 +5239,7 @@
         <v>25</v>
       </c>
       <c r="AX26" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY26" t="n">
         <v>3</v>
@@ -5181,13 +5248,13 @@
         <v>6</v>
       </c>
       <c r="BA26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BB26" t="n">
         <v>17</v>
       </c>
       <c r="BC26" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -5216,49 +5283,49 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="n">
         <v>19</v>
       </c>
       <c r="F27" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="n">
-        <v>0.345</v>
+        <v>0.352</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J27" t="n">
-        <v>83.2</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K27" t="n">
-        <v>0.438</v>
+        <v>0.439</v>
       </c>
       <c r="L27" t="n">
         <v>6.5</v>
       </c>
       <c r="M27" t="n">
-        <v>18.6</v>
+        <v>18.4</v>
       </c>
       <c r="N27" t="n">
-        <v>0.351</v>
+        <v>0.35</v>
       </c>
       <c r="O27" t="n">
-        <v>17.6</v>
+        <v>17.4</v>
       </c>
       <c r="P27" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.759</v>
+        <v>0.757</v>
       </c>
       <c r="R27" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="S27" t="n">
         <v>28.4</v>
@@ -5270,13 +5337,13 @@
         <v>19.7</v>
       </c>
       <c r="V27" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="W27" t="n">
         <v>8.4</v>
       </c>
       <c r="X27" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="Y27" t="n">
         <v>6.4</v>
@@ -5288,13 +5355,13 @@
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>96.90000000000001</v>
+        <v>96.8</v>
       </c>
       <c r="AC27" t="n">
         <v>-6.9</v>
       </c>
       <c r="AD27" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE27" t="n">
         <v>23</v>
@@ -5309,16 +5376,16 @@
         <v>20</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK27" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM27" t="n">
         <v>20</v>
@@ -5327,13 +5394,13 @@
         <v>17</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP27" t="n">
         <v>11</v>
       </c>
       <c r="AQ27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
         <v>11</v>
@@ -5348,10 +5415,10 @@
         <v>28</v>
       </c>
       <c r="AV27" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AW27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
         <v>24</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -5398,43 +5465,43 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F28" t="n">
         <v>12</v>
       </c>
       <c r="G28" t="n">
-        <v>0.782</v>
+        <v>0.778</v>
       </c>
       <c r="H28" t="n">
         <v>48.5</v>
       </c>
       <c r="I28" t="n">
-        <v>39.5</v>
+        <v>39.6</v>
       </c>
       <c r="J28" t="n">
-        <v>81.09999999999999</v>
+        <v>81.3</v>
       </c>
       <c r="K28" t="n">
         <v>0.487</v>
       </c>
       <c r="L28" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="M28" t="n">
-        <v>22.4</v>
+        <v>22.2</v>
       </c>
       <c r="N28" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O28" t="n">
-        <v>16.6</v>
+        <v>16.4</v>
       </c>
       <c r="P28" t="n">
-        <v>21</v>
+        <v>20.7</v>
       </c>
       <c r="Q28" t="n">
         <v>0.792</v>
@@ -5443,10 +5510,10 @@
         <v>7.9</v>
       </c>
       <c r="S28" t="n">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="T28" t="n">
-        <v>41</v>
+        <v>40.9</v>
       </c>
       <c r="U28" t="n">
         <v>25</v>
@@ -5458,25 +5525,25 @@
         <v>8.699999999999999</v>
       </c>
       <c r="X28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="Z28" t="n">
         <v>17.3</v>
       </c>
       <c r="AA28" t="n">
-        <v>18.6</v>
+        <v>18.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="AC28" t="n">
         <v>8.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE28" t="n">
         <v>1</v>
@@ -5494,7 +5561,7 @@
         <v>2</v>
       </c>
       <c r="AJ28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK28" t="n">
         <v>2</v>
@@ -5509,10 +5576,10 @@
         <v>4</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5521,7 +5588,7 @@
         <v>30</v>
       </c>
       <c r="AS28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT28" t="n">
         <v>25</v>
@@ -5533,7 +5600,7 @@
         <v>10</v>
       </c>
       <c r="AW28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX28" t="n">
         <v>14</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E29" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F29" t="n">
         <v>32</v>
       </c>
       <c r="G29" t="n">
-        <v>0.407</v>
+        <v>0.396</v>
       </c>
       <c r="H29" t="n">
         <v>48.9</v>
@@ -5598,7 +5665,7 @@
         <v>36.5</v>
       </c>
       <c r="J29" t="n">
-        <v>82.2</v>
+        <v>82.3</v>
       </c>
       <c r="K29" t="n">
         <v>0.444</v>
@@ -5610,7 +5677,7 @@
         <v>21.3</v>
       </c>
       <c r="N29" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O29" t="n">
         <v>17.2</v>
@@ -5619,13 +5686,13 @@
         <v>22.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.779</v>
+        <v>0.777</v>
       </c>
       <c r="R29" t="n">
         <v>11</v>
       </c>
       <c r="S29" t="n">
-        <v>29.1</v>
+        <v>29</v>
       </c>
       <c r="T29" t="n">
         <v>40.1</v>
@@ -5634,7 +5701,7 @@
         <v>22.3</v>
       </c>
       <c r="V29" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W29" t="n">
         <v>7.4</v>
@@ -5643,10 +5710,10 @@
         <v>4.6</v>
       </c>
       <c r="Y29" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="Z29" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AA29" t="n">
         <v>19.5</v>
@@ -5655,13 +5722,13 @@
         <v>97.7</v>
       </c>
       <c r="AC29" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="AD29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AE29" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF29" t="n">
         <v>22</v>
@@ -5673,7 +5740,7 @@
         <v>3</v>
       </c>
       <c r="AI29" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AJ29" t="n">
         <v>14</v>
@@ -5688,7 +5755,7 @@
         <v>8</v>
       </c>
       <c r="AN29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO29" t="n">
         <v>12</v>
@@ -5700,7 +5767,7 @@
         <v>9</v>
       </c>
       <c r="AR29" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AS29" t="n">
         <v>28</v>
@@ -5709,7 +5776,7 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV29" t="n">
         <v>3</v>
@@ -5730,7 +5797,7 @@
         <v>19</v>
       </c>
       <c r="BB29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC29" t="n">
         <v>18</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -5762,70 +5829,70 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F30" t="n">
         <v>24</v>
       </c>
       <c r="G30" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.556</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
       </c>
       <c r="I30" t="n">
-        <v>37</v>
+        <v>36.9</v>
       </c>
       <c r="J30" t="n">
-        <v>81.7</v>
+        <v>81.8</v>
       </c>
       <c r="K30" t="n">
         <v>0.452</v>
       </c>
       <c r="L30" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M30" t="n">
-        <v>16.7</v>
+        <v>16.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O30" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P30" t="n">
-        <v>24.2</v>
+        <v>24</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R30" t="n">
         <v>12.2</v>
       </c>
       <c r="S30" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.9</v>
+        <v>42</v>
       </c>
       <c r="U30" t="n">
         <v>22.8</v>
       </c>
       <c r="V30" t="n">
-        <v>14.8</v>
+        <v>14.9</v>
       </c>
       <c r="W30" t="n">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
         <v>21.7</v>
@@ -5834,13 +5901,13 @@
         <v>20.7</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.59999999999999</v>
+        <v>98.3</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>10</v>
@@ -5861,10 +5928,10 @@
         <v>16</v>
       </c>
       <c r="AK30" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AM30" t="n">
         <v>26</v>
@@ -5885,16 +5952,16 @@
         <v>10</v>
       </c>
       <c r="AS30" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AW30" t="n">
         <v>11</v>
@@ -5903,7 +5970,7 @@
         <v>5</v>
       </c>
       <c r="AY30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ30" t="n">
         <v>28</v>
@@ -5915,7 +5982,7 @@
         <v>11</v>
       </c>
       <c r="BC30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
@@ -5944,49 +6011,49 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E31" t="n">
         <v>15</v>
       </c>
       <c r="F31" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G31" t="n">
-        <v>0.288</v>
+        <v>0.294</v>
       </c>
       <c r="H31" t="n">
         <v>48.7</v>
       </c>
       <c r="I31" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J31" t="n">
         <v>82.3</v>
       </c>
       <c r="K31" t="n">
-        <v>0.427</v>
+        <v>0.428</v>
       </c>
       <c r="L31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="M31" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="N31" t="n">
-        <v>0.346</v>
+        <v>0.345</v>
       </c>
       <c r="O31" t="n">
-        <v>14.5</v>
+        <v>14.4</v>
       </c>
       <c r="P31" t="n">
-        <v>19.8</v>
+        <v>19.6</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.735</v>
+        <v>0.733</v>
       </c>
       <c r="R31" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="S31" t="n">
         <v>32.5</v>
@@ -6004,7 +6071,7 @@
         <v>7.5</v>
       </c>
       <c r="X31" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="Y31" t="n">
         <v>4.9</v>
@@ -6019,16 +6086,16 @@
         <v>91.3</v>
       </c>
       <c r="AC31" t="n">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AE31" t="n">
         <v>28</v>
       </c>
       <c r="AF31" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AG31" t="n">
         <v>28</v>
@@ -6049,10 +6116,10 @@
         <v>21</v>
       </c>
       <c r="AM31" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AN31" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AO31" t="n">
         <v>27</v>
@@ -6076,7 +6143,7 @@
         <v>20</v>
       </c>
       <c r="AV31" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW31" t="n">
         <v>18</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>2-19-2012-13</t>
+          <t>2013-02-19</t>
         </is>
       </c>
     </row>
